--- a/biology/Botanique/Gewurztraminer_(cépage)/Gewurztraminer_(cépage).xlsx
+++ b/biology/Botanique/Gewurztraminer_(cépage)/Gewurztraminer_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gewurztraminer_(c%C3%A9page)</t>
+          <t>Gewurztraminer_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gewurztraminer Rs[N 1], ou gewürztraminer (il prend généralement un tréma sur le u, sauf en France), est un cépage à grains roses, de la famille des Traminers. Il est aussi appelé savagnin rose aromatique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gewurztraminer_(c%C3%A9page)</t>
+          <t>Gewurztraminer_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Son histoire est longtemps confondue avec celle du savagnin rose et pour cause : il est issu de ce dernier cépage dont il est une mutation plus aromatique. Les autres critères de distinction ampélographique sont identiques.
-Son origine vient du Tyrol italien, où on parle allemand : Gewürz signifie « aromatique », Traminer de la ville de Tramin, dans le Sud Tyrol (Nord-Est de l'Italie)[1]. On a connaissance des cépages italiens depuis l'année 1000. Le climat froid du Nord-Est italien est similaire à celui de l'Allemagne et de l'Alsace : pour cela l'importation des cépages en Alsace a permis d'obtenir un excellent blanc comme en Italie.[réf. nécessaire]
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son histoire est longtemps confondue avec celle du savagnin rose et pour cause : il est issu de ce dernier cépage dont il est une mutation plus aromatique. Les autres critères de distinction ampélographique sont identiques.
+Son origine vient du Tyrol italien, où on parle allemand : Gewürz signifie « aromatique », Traminer de la ville de Tramin, dans le Sud Tyrol (Nord-Est de l'Italie). On a connaissance des cépages italiens depuis l'année 1000. Le climat froid du Nord-Est italien est similaire à celui de l'Allemagne et de l'Alsace : pour cela l'importation des cépages en Alsace a permis d'obtenir un excellent blanc comme en Italie.[réf. nécessaire]
 Le nom de Gewürztraminer est attesté en Allemagne depuis le XVIe siècle. Il est cependant possible qu'il désignait alors soit le cépage connu sous ce nom aujourd'hui, soit le savagnin rose (alias Klevener).
-Il semblerait que la première sélection française de cette forme aromatique ait eu lieu en Alsace. À partir du XIXe siècle, il est nommé distinctement du simple traminer[1]. Victor Rendu, dans son ouvrage Ampélographie française, édition de 1857, le décrit sous le nom de « gentil rose ». La terminologie germanique ne permet pas toujours de distinguer le gewürztraminer du savagnin rose, tous les deux étant appelés traminer.
-Géographique
-Le gewurztraminer représente environ 14 000 hectares dans le monde, dont 3 000 en France (dans le vignoble d'Alsace[2] et en Lorraine, pour les Appellations d'Origine, mais aussi dans le Languedoc, en IGP ou Vin de France). En Alsace, il peut bénéficier de l'appellation alsace grand cru.
-Au cours des années 1990, il s'en cultivait 930 hectares en Allemagne (surtout au Pays de Bade, en Palatinat et en Moselle allemande), 770 ha en Hongrie, 700 ha en Autriche, 500 ha en Italie (dont 150 au Tyrol du Sud), 200 ha en Croatie, 50 ha en Suisse et 20 ha au Luxembourg ; on note aussi sa présence dans le nord de l'Espagne (Somontano, Calatayud et Catalogne) et en Slovénie. Hors d'Europe, il est surtout présent aux États-Unis avec 2 500 ha, beaucoup moins en Afrique du Sud (300 ha) et en Australie (840 ha)[3].
+Il semblerait que la première sélection française de cette forme aromatique ait eu lieu en Alsace. À partir du XIXe siècle, il est nommé distinctement du simple traminer. Victor Rendu, dans son ouvrage Ampélographie française, édition de 1857, le décrit sous le nom de « gentil rose ». La terminologie germanique ne permet pas toujours de distinguer le gewürztraminer du savagnin rose, tous les deux étant appelés traminer.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gewurztraminer_(c%C3%A9page)</t>
+          <t>Gewurztraminer_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractères ampélographiques</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'extrémité du jeune rameau est très velue.
-Les feuilles adultes sont de petite taille, trilobées, avec un sinus pétiolaire peu ouvert ou à bords chevauchants, des dents courtes ogivales, un limbe bullé et parfois gaufré et tourmenté.
-Les grappes sont petites. Les baies sont petites et sphériques, de couleur jaune-doré[4].
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gewurztraminer représente environ 14 000 hectares dans le monde, dont 3 000 en France (dans le vignoble d'Alsace et en Lorraine, pour les Appellations d'Origine, mais aussi dans le Languedoc, en IGP ou Vin de France). En Alsace, il peut bénéficier de l'appellation alsace grand cru.
+Au cours des années 1990, il s'en cultivait 930 hectares en Allemagne (surtout au Pays de Bade, en Palatinat et en Moselle allemande), 770 ha en Hongrie, 700 ha en Autriche, 500 ha en Italie (dont 150 au Tyrol du Sud), 200 ha en Croatie, 50 ha en Suisse et 20 ha au Luxembourg ; on note aussi sa présence dans le nord de l'Espagne (Somontano, Calatayud et Catalogne) et en Slovénie. Hors d'Europe, il est surtout présent aux États-Unis avec 2 500 ha, beaucoup moins en Afrique du Sud (300 ha) et en Australie (840 ha).
 </t>
         </is>
       </c>
@@ -565,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gewurztraminer_(c%C3%A9page)</t>
+          <t>Gewurztraminer_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,20 +599,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aptitudes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Le gewurztraminer est un cépage vigoureux, mais sensible à la coulure et peu productif. Il est généralement taillé long pour assurer une production suffisante. Sensible à la chlorose et au dessèchement de la rafle, il résiste bien au froid hivernal, même si sa précocité fait craindre les gelées printanières tardives[4].
-Sensibilité aux maladies
-Ce cépage est relativement peu sensible à l'oïdium, à la pourriture grise et aux vers de la grappe. Les années favorables, il peut être attaqué par la pourriture noble.
-Technologiques
-Le gewurztraminer est un cépage qui donne un moût riche en sucre, parfois manquant un peu d'acidité. Il donne un vin très aromatique avec des senteurs très caractéristiques de rose et de litchi[4].
-Il peut être vinifié en vin blanc sec ou moelleux, parfois très sucré en vendange tardive ou en sélection de grains nobles.
-Accord gastronomique
-Il s'accorde avec des fromages alsaciens aux goûts prononcés (munster), poissons grillés (parillade) ; il accompagne merveilleusement la cuisine asiatique ou indienne, notamment si elle est à base de lait de coco, de gingembre, etc. Consommé essentiellement en accompagnement des desserts, il peut aussi être servi seul en apéritif.
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'extrémité du jeune rameau est très velue.
+Les feuilles adultes sont de petite taille, trilobées, avec un sinus pétiolaire peu ouvert ou à bords chevauchants, des dents courtes ogivales, un limbe bullé et parfois gaufré et tourmenté.
+Les grappes sont petites. Les baies sont petites et sphériques, de couleur jaune-doré.
 </t>
         </is>
       </c>
@@ -604,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gewurztraminer_(c%C3%A9page)</t>
+          <t>Gewurztraminer_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,12 +634,163 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gewurztraminer est un cépage vigoureux, mais sensible à la coulure et peu productif. Il est généralement taillé long pour assurer une production suffisante. Sensible à la chlorose et au dessèchement de la rafle, il résiste bien au froid hivernal, même si sa précocité fait craindre les gelées printanières tardives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gewurztraminer_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gewurztraminer_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage est relativement peu sensible à l'oïdium, à la pourriture grise et aux vers de la grappe. Les années favorables, il peut être attaqué par la pourriture noble.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gewurztraminer_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gewurztraminer_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gewurztraminer est un cépage qui donne un moût riche en sucre, parfois manquant un peu d'acidité. Il donne un vin très aromatique avec des senteurs très caractéristiques de rose et de litchi.
+Il peut être vinifié en vin blanc sec ou moelleux, parfois très sucré en vendange tardive ou en sélection de grains nobles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gewurztraminer_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gewurztraminer_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accord gastronomique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'accorde avec des fromages alsaciens aux goûts prononcés (munster), poissons grillés (parillade) ; il accompagne merveilleusement la cuisine asiatique ou indienne, notamment si elle est à base de lait de coco, de gingembre, etc. Consommé essentiellement en accompagnement des desserts, il peut aussi être servi seul en apéritif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gewurztraminer_(cépage)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gewurztraminer_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gewurztraminer est aussi connu sous les noms suivants[5] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gewurztraminer est aussi connu sous les noms suivants :
 Auvernas Rouge
 Blanc Brun
 Blanc Court
